--- a/spss_rules.xlsx
+++ b/spss_rules.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="توليد كود SPSS باستخدام Python " sheetId="1" r:id="rId5"/>
+    <sheet name="توليد كود SPSS باستخدام Python " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Keyword</t>
   </si>
@@ -107,20 +110,99 @@
   </si>
   <si>
     <t>REGRESSION /STATISTICS COEFF OUTS R ANOVA /DEPENDENT {y} /METHOD=ENTER {x_list}.</t>
+  </si>
+  <si>
+    <t>DESCRIPTIVES VARIABLES=var /STATISTICS=MEAN STDDEV MIN MAX.</t>
+  </si>
+  <si>
+    <t>DESCRIPTIVES VARIABLES=var /SAVE.</t>
+  </si>
+  <si>
+    <t>T-TEST GROUPS=group(1 2) /VARIABLES=test_var.</t>
+  </si>
+  <si>
+    <t>T-TEST PAIRS=Before WITH After (PAIRED).</t>
+  </si>
+  <si>
+    <t>ONEWAY var BY group /STATISTICS DESCRIPTIVES /POSTHOC=TUKEY.</t>
+  </si>
+  <si>
+    <t>NPAR TESTS /K-S(NORMAL)=var.</t>
+  </si>
+  <si>
+    <t>CORRELATIONS /VARIABLES=var1 var2 /PRINT=TWOTAIL.</t>
+  </si>
+  <si>
+    <t>REGRESSION /DEPENDENT=y /METHOD=ENTER x.</t>
+  </si>
+  <si>
+    <t>REGRESSION /DEPENDENT=y /METHOD=ENTER x1 x2 x3.</t>
+  </si>
+  <si>
+    <t>GRAPH /BAR(MEAN)=var BY group.</t>
+  </si>
+  <si>
+    <t>GRAPH /PIE=SUM(var) BY group.</t>
+  </si>
+  <si>
+    <t>GRAPH /HISTOGRAM(NORMAL)=var.</t>
+  </si>
+  <si>
+    <t>RECODE var (Low thru 1990=1) (1991 thru Hi=2) INTO newvar.</t>
+  </si>
+  <si>
+    <t>Descriptives</t>
+  </si>
+  <si>
+    <t>Z-Scores</t>
+  </si>
+  <si>
+    <t>Independent T-Test</t>
+  </si>
+  <si>
+    <t>Paired T-Test</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA</t>
+  </si>
+  <si>
+    <t>Normality (K-S)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Simple Regression</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Bar Chart</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Recode Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -131,32 +213,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -164,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -354,20 +440,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -389,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -400,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -411,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -422,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -433,7 +524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -444,7 +535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -455,7 +546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -466,7 +557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -477,7 +568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -488,7 +579,150 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>